--- a/py-utils/workflow/ExcelTemplate/字段描述模板.xlsx
+++ b/py-utils/workflow/ExcelTemplate/字段描述模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A39B9E-0BC2-4F23-B2D6-3694CC21FFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,24 +45,26 @@
     <t>carSeriesId</t>
   </si>
   <si>
-    <t>carSeriesCode</t>
-  </si>
-  <si>
-    <t>carSeriesCn</t>
-  </si>
-  <si>
     <t>车系ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车系编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carSeriesCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carSeriesCn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +153,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 16 3 2" xfId="1"/>
+    <cellStyle name="常规 16 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,22 +430,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.58203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -453,9 +456,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -464,38 +467,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
